--- a/jpcore-r4/main/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-medicationrequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4108" uniqueCount="638">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24</t>
+    <t>2022-10-31</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>このプロファイルはJP_MedicationRequestBaseリソースに対して、内服・外用薬剤処方のデータを送受信するための基礎となる制約と拡張を定めたものである。</t>
+    <t>このプロファイルはMedicationRequestリソースに対して、内服・外用薬剤処方のデータを送受信するための基礎となる制約と拡張を定めたものである。</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequestBase</t>
+    <t>http://hl7.org/fhir/StructureDefinition/MedicationRequest</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -265,7 +265,7 @@
     <t>患者あるいはグループに対しての処方オーダ</t>
   </si>
   <si>
-    <t>患者への薬の供給と内服・外用薬剤処方の指示を共に提供するオーダ。ケアプランやワークフローパターンとハーモナイズし、入院や外来でも使えるようにするため、このリソースは"MedicationPrescription"や"MedicationOrder"ではなく、"MedicationRequest"と呼ばれる。JP_MedicationRequestBaseプロファイルからの派生プロファイルである。</t>
+    <t>患者への薬の供給と内服・外用薬剤処方の指示を共に提供するオーダ。ケアプランやワークフローパターンとハーモナイズし、入院や外来でも使えるようにするため、このリソースは"MedicationPrescription"や"MedicationOrder"ではなく、"MedicationRequest"と呼ばれる。MedicationRequestプロファイルからの派生プロファイルである。</t>
   </si>
   <si>
     <t>Request</t>
@@ -739,61 +739,73 @@
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
+    <t>orderInRp</t>
+  </si>
+  <si>
+    <t>同一RP番号（剤グループ）での薬剤の表記順</t>
+  </si>
+  <si>
+    <t>同一剤グループでの薬剤を表記する際の順番。XML形式と異なりJSON形式の場合、表記順は項目の順序を意味しない。したがって、薬剤の記載順を別に規定する必要があるためIDを用いて表現する。</t>
+  </si>
+  <si>
+    <t>同一剤グループ内での薬剤の順番を1から順の番号で示す。</t>
+  </si>
+  <si>
+    <t>RP番号内（剤グループ内）の連番を示すsystem値</t>
+  </si>
+  <si>
+    <t>剤グループ内番号の名前空間を識別するURI。固定値urn:oid:1.2.392.100495.20.3.82</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.3.82</t>
+  </si>
+  <si>
+    <t>RP番号内（剤グループ内）の連番</t>
+  </si>
+  <si>
+    <t>剤グループ内連番。</t>
+  </si>
+  <si>
+    <t>requestIdentifierCommon</t>
+  </si>
+  <si>
+    <t>処方箋に対するID</t>
+  </si>
+  <si>
+    <t>薬剤をオーダする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。system 要素には、保険医療機関番号を含む処方箋ID（urn:oid:1.2.392.100495.20.3.11.1[保険医療機関コード(10 桁)]）を指定する。全国で⼀意になる発番ルールにもとづく場合には urn:oid:1.2.392.100495.20.3.11 とする。</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier.</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.3.11</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
     <t>requestIdentifier</t>
   </si>
   <si>
     <t>処方オーダに対するID</t>
   </si>
   <si>
-    <t>薬剤をオーダする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier.</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+    <t>薬剤をオーダする単位としての処方依頼に対するID。MedicationRequestは単一の薬剤でインスタンスが作成される。</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>orderInRp</t>
-  </si>
-  <si>
-    <t>同一RP番号（剤グループ）での薬剤の表記順</t>
-  </si>
-  <si>
-    <t>同一剤グループでの薬剤を表記する際の順番。XML形式と異なりJSON形式の場合、表記順は項目の順序を意味しない。したがって、薬剤の記載順を別に規定する必要があるためIDを用いて表現する。</t>
-  </si>
-  <si>
-    <t>同一剤グループ内での薬剤の順番を1から順の番号で示す。</t>
-  </si>
-  <si>
-    <t>RP番号内（剤グループ内）の連番を示すsystem値</t>
-  </si>
-  <si>
-    <t>剤グループ内番号の名前空間を識別するURI。固定値urn:oid:1.2.392.100495.20.3.82</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.392.100495.20.3.82</t>
-  </si>
-  <si>
-    <t>RP番号内（剤グループ内）の連番</t>
-  </si>
-  <si>
-    <t>剤グループ内連番。</t>
   </si>
   <si>
     <t>MedicationRequest.status</t>
@@ -1028,6 +1040,15 @@
     <t>medicationCodeableConcept</t>
   </si>
   <si>
+    <t>Medication to be taken</t>
+  </si>
+  <si>
+    <t>Identifies the medication being requested. This is a link to a resource that represents the medication which may be the details of the medication or simply an attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
+  </si>
+  <si>
     <t>処方する製剤を表すコード。</t>
   </si>
   <si>
@@ -1939,7 +1960,7 @@
     <t>MedicationRequest.priorPrescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequestBase)
+    <t xml:space="preserve">Reference(MedicationRequest)
 </t>
   </si>
   <si>
@@ -2304,7 +2325,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN104"/>
+  <dimension ref="A1:AN113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4765,10 +4786,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>81</v>
@@ -5477,7 +5498,7 @@
         <v>241</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5788,14 +5809,14 @@
         <v>152</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>88</v>
@@ -5813,13 +5834,13 @@
         <v>154</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -6385,10 +6406,10 @@
         <v>102</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>203</v>
@@ -6401,7 +6422,7 @@
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>81</v>
@@ -6501,13 +6522,13 @@
         <v>169</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6815,30 +6836,32 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B40" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>253</v>
@@ -6847,7 +6870,7 @@
         <v>254</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6873,13 +6896,13 @@
         <v>81</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>257</v>
+        <v>81</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>81</v>
@@ -6897,13 +6920,13 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>252</v>
+        <v>152</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>81</v>
@@ -6912,24 +6935,24 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>258</v>
+        <v>159</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>259</v>
+        <v>160</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>260</v>
+        <v>161</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>261</v>
+        <v>162</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>81</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>262</v>
+        <v>168</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6952,17 +6975,15 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>263</v>
+        <v>170</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>81</v>
@@ -6987,13 +7008,13 @@
         <v>81</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>81</v>
@@ -7011,7 +7032,7 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>262</v>
+        <v>172</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
@@ -7023,16 +7044,16 @@
         <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>268</v>
+        <v>81</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>269</v>
+        <v>173</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>81</v>
@@ -7043,39 +7064,39 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>270</v>
+        <v>174</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>271</v>
+        <v>175</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>272</v>
+        <v>176</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>273</v>
+        <v>149</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7101,55 +7122,55 @@
         <v>81</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>274</v>
+        <v>81</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>275</v>
+        <v>81</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>270</v>
+        <v>178</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>277</v>
+        <v>173</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -7157,7 +7178,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>279</v>
+        <v>179</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7168,30 +7189,32 @@
         <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>281</v>
+        <v>181</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>81</v>
       </c>
@@ -7215,11 +7238,13 @@
         <v>81</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>283</v>
+        <v>186</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>81</v>
@@ -7237,13 +7262,13 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>279</v>
+        <v>187</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>81</v>
@@ -7255,21 +7280,21 @@
         <v>81</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>284</v>
+        <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>285</v>
+        <v>188</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>286</v>
+        <v>189</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7292,18 +7317,20 @@
         <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>287</v>
+        <v>191</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>288</v>
+        <v>192</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>81</v>
       </c>
@@ -7327,13 +7354,13 @@
         <v>81</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>290</v>
+        <v>196</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>291</v>
+        <v>197</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>81</v>
@@ -7351,7 +7378,7 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -7366,24 +7393,24 @@
         <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>292</v>
+        <v>81</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>293</v>
+        <v>188</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>294</v>
+        <v>81</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>81</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>295</v>
+        <v>200</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7391,7 +7418,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>88</v>
@@ -7400,36 +7427,38 @@
         <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>296</v>
+        <v>102</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>297</v>
+        <v>246</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>298</v>
+        <v>247</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>81</v>
+        <v>255</v>
       </c>
       <c r="R45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>81</v>
@@ -7465,7 +7494,7 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>295</v>
+        <v>207</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -7486,18 +7515,18 @@
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>300</v>
+        <v>208</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>81</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>301</v>
+        <v>210</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7505,7 +7534,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>88</v>
@@ -7520,15 +7549,17 @@
         <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>302</v>
+        <v>169</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>81</v>
@@ -7541,7 +7572,7 @@
         <v>81</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>81</v>
@@ -7577,7 +7608,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>301</v>
+        <v>215</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7598,18 +7629,18 @@
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>305</v>
+        <v>216</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>81</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>306</v>
+        <v>218</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7617,7 +7648,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>88</v>
@@ -7632,17 +7663,15 @@
         <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>307</v>
+        <v>220</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>81</v>
@@ -7667,32 +7696,34 @@
         <v>81</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>310</v>
+        <v>81</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>311</v>
+        <v>81</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AB47" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AC47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>313</v>
+        <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>306</v>
+        <v>222</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>88</v>
@@ -7704,34 +7735,32 @@
         <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>314</v>
+        <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>315</v>
+        <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>316</v>
+        <v>223</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>317</v>
+        <v>81</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>318</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>88</v>
@@ -7746,16 +7775,16 @@
         <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>307</v>
+        <v>227</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>308</v>
+        <v>228</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>309</v>
+        <v>229</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7781,13 +7810,13 @@
         <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>320</v>
+        <v>81</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>321</v>
+        <v>81</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>81</v>
@@ -7805,10 +7834,10 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>306</v>
+        <v>230</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>88</v>
@@ -7820,24 +7849,24 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>314</v>
+        <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>315</v>
+        <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>316</v>
+        <v>231</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>317</v>
+        <v>81</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>318</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>322</v>
+        <v>256</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7854,22 +7883,22 @@
         <v>81</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>323</v>
+        <v>108</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>324</v>
+        <v>257</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>325</v>
+        <v>258</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>326</v>
+        <v>259</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7895,13 +7924,13 @@
         <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>81</v>
+        <v>260</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>81</v>
+        <v>261</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>81</v>
@@ -7919,7 +7948,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>322</v>
+        <v>256</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>88</v>
@@ -7934,24 +7963,24 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>327</v>
+        <v>262</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>328</v>
+        <v>263</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>329</v>
+        <v>264</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>330</v>
+        <v>265</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>331</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>332</v>
+        <v>266</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7974,16 +8003,16 @@
         <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>333</v>
+        <v>190</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>334</v>
+        <v>267</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>335</v>
+        <v>267</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8009,13 +8038,13 @@
         <v>81</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>81</v>
+        <v>269</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>81</v>
+        <v>270</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>81</v>
+        <v>271</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>81</v>
@@ -8033,7 +8062,7 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>332</v>
+        <v>266</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -8048,24 +8077,24 @@
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>337</v>
+        <v>272</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>259</v>
+        <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>338</v>
+        <v>273</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>339</v>
+        <v>81</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>340</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>341</v>
+        <v>274</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8073,31 +8102,31 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>342</v>
+        <v>108</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>343</v>
+        <v>275</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>344</v>
+        <v>276</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>345</v>
+        <v>277</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8123,13 +8152,13 @@
         <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>81</v>
+        <v>279</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>81</v>
@@ -8147,13 +8176,13 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>341</v>
+        <v>274</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>81</v>
@@ -8162,16 +8191,16 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>346</v>
+        <v>280</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>339</v>
+        <v>282</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -8179,7 +8208,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>348</v>
+        <v>283</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8187,10 +8216,10 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>81</v>
@@ -8199,18 +8228,20 @@
         <v>81</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>349</v>
+        <v>190</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>350</v>
+        <v>284</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>81</v>
@@ -8235,13 +8266,11 @@
         <v>81</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X52" s="2"/>
       <c r="Y52" t="s" s="2">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>81</v>
@@ -8259,13 +8288,13 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>348</v>
+        <v>283</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>81</v>
@@ -8274,24 +8303,24 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>352</v>
+        <v>81</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>353</v>
+        <v>288</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>354</v>
+        <v>289</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>355</v>
+        <v>282</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>356</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>357</v>
+        <v>290</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8314,16 +8343,16 @@
         <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>358</v>
+        <v>108</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>359</v>
+        <v>291</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>360</v>
+        <v>292</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>345</v>
+        <v>293</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8349,13 +8378,13 @@
         <v>81</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>81</v>
+        <v>294</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>81</v>
+        <v>295</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>81</v>
@@ -8373,7 +8402,7 @@
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>357</v>
+        <v>290</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
@@ -8388,16 +8417,16 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>361</v>
+        <v>296</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>362</v>
+        <v>298</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8405,7 +8434,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>363</v>
+        <v>299</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8422,22 +8451,22 @@
         <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>364</v>
+        <v>300</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>365</v>
+        <v>301</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>366</v>
+        <v>302</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>345</v>
+        <v>303</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8487,7 +8516,7 @@
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>363</v>
+        <v>299</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
@@ -8502,16 +8531,16 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>367</v>
+        <v>81</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>368</v>
+        <v>304</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>369</v>
+        <v>81</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8519,7 +8548,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>370</v>
+        <v>305</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8542,17 +8571,15 @@
         <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>190</v>
+        <v>306</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>371</v>
+        <v>307</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>81</v>
@@ -8577,11 +8604,13 @@
         <v>81</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="X55" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y55" t="s" s="2">
-        <v>374</v>
+        <v>81</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>81</v>
@@ -8599,7 +8628,7 @@
         <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>370</v>
+        <v>305</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
@@ -8614,13 +8643,13 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>375</v>
+        <v>81</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>376</v>
+        <v>309</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>81</v>
@@ -8631,7 +8660,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>377</v>
+        <v>310</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8639,7 +8668,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>88</v>
@@ -8651,19 +8680,19 @@
         <v>81</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>378</v>
+        <v>190</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>379</v>
+        <v>311</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>380</v>
+        <v>312</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8689,34 +8718,32 @@
         <v>81</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>81</v>
+        <v>269</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>81</v>
+        <v>314</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>81</v>
+        <v>315</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="AB56" s="2"/>
       <c r="AC56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>81</v>
+        <v>317</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>377</v>
+        <v>310</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>88</v>
@@ -8728,35 +8755,37 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>81</v>
+        <v>318</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>381</v>
+        <v>320</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>382</v>
+        <v>321</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>81</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="B57" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="C57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>81</v>
@@ -8765,19 +8794,19 @@
         <v>81</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>190</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>384</v>
+        <v>324</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>385</v>
+        <v>325</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>386</v>
+        <v>326</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8803,13 +8832,13 @@
         <v>81</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>265</v>
+        <v>112</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>387</v>
+        <v>327</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>388</v>
+        <v>328</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>81</v>
@@ -8827,13 +8856,13 @@
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>383</v>
+        <v>310</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>81</v>
@@ -8842,24 +8871,24 @@
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>389</v>
+        <v>318</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>390</v>
+        <v>319</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>391</v>
+        <v>320</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>392</v>
+        <v>321</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>393</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>394</v>
+        <v>329</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8867,10 +8896,10 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>81</v>
@@ -8879,19 +8908,19 @@
         <v>81</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>395</v>
+        <v>330</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>396</v>
+        <v>331</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>397</v>
+        <v>332</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>398</v>
+        <v>333</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8941,13 +8970,13 @@
         <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>394</v>
+        <v>329</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>81</v>
@@ -8956,24 +8985,24 @@
         <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>399</v>
+        <v>334</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>259</v>
+        <v>335</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>400</v>
+        <v>336</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>392</v>
+        <v>337</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>81</v>
+        <v>338</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>401</v>
+        <v>339</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8984,7 +9013,7 @@
         <v>79</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>81</v>
@@ -8993,19 +9022,19 @@
         <v>81</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>402</v>
+        <v>340</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>403</v>
+        <v>341</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>404</v>
+        <v>342</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>405</v>
+        <v>343</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9055,13 +9084,13 @@
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>401</v>
+        <v>339</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>81</v>
@@ -9070,24 +9099,24 @@
         <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>406</v>
+        <v>344</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>407</v>
+        <v>345</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>81</v>
+        <v>346</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>81</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>408</v>
+        <v>348</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9107,19 +9136,19 @@
         <v>81</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>102</v>
+        <v>349</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>409</v>
+        <v>350</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>410</v>
+        <v>352</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9169,7 +9198,7 @@
         <v>81</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>408</v>
+        <v>348</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
@@ -9184,16 +9213,16 @@
         <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>81</v>
+        <v>353</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>407</v>
+        <v>354</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>81</v>
+        <v>346</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -9201,7 +9230,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>411</v>
+        <v>355</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9209,10 +9238,10 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>81</v>
@@ -9224,17 +9253,15 @@
         <v>89</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>412</v>
+        <v>356</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>413</v>
+        <v>357</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>81</v>
@@ -9283,13 +9310,13 @@
         <v>81</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>411</v>
+        <v>355</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>81</v>
@@ -9298,24 +9325,24 @@
         <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>415</v>
+        <v>359</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>81</v>
+        <v>360</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>416</v>
+        <v>361</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>81</v>
+        <v>362</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>81</v>
+        <v>363</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>417</v>
+        <v>364</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9338,18 +9365,18 @@
         <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>154</v>
+        <v>365</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>418</v>
+        <v>366</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>81</v>
       </c>
@@ -9397,7 +9424,7 @@
         <v>81</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>417</v>
+        <v>364</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
@@ -9412,16 +9439,16 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>421</v>
+        <v>368</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>422</v>
+        <v>336</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>81</v>
+        <v>369</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>81</v>
@@ -9429,7 +9456,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>423</v>
+        <v>370</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9452,16 +9479,16 @@
         <v>81</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>190</v>
+        <v>371</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>424</v>
+        <v>372</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>425</v>
+        <v>373</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>426</v>
+        <v>352</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9487,13 +9514,13 @@
         <v>81</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>427</v>
+        <v>81</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>428</v>
+        <v>81</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>81</v>
@@ -9511,7 +9538,7 @@
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>423</v>
+        <v>370</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
@@ -9526,16 +9553,16 @@
         <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>81</v>
+        <v>374</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>429</v>
+        <v>375</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>81</v>
+        <v>376</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
@@ -9543,7 +9570,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>430</v>
+        <v>377</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9554,7 +9581,7 @@
         <v>79</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>81</v>
@@ -9563,19 +9590,19 @@
         <v>81</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>431</v>
+        <v>190</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>432</v>
+        <v>378</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>433</v>
+        <v>379</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9601,13 +9628,11 @@
         <v>81</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="X64" s="2"/>
       <c r="Y64" t="s" s="2">
-        <v>81</v>
+        <v>381</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>81</v>
@@ -9625,13 +9650,13 @@
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>430</v>
+        <v>377</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>81</v>
@@ -9640,13 +9665,13 @@
         <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>434</v>
+        <v>382</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>435</v>
+        <v>383</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>81</v>
@@ -9657,7 +9682,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>436</v>
+        <v>384</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9668,7 +9693,7 @@
         <v>79</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>81</v>
@@ -9680,16 +9705,16 @@
         <v>81</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>439</v>
+        <v>387</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>440</v>
+        <v>352</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9739,13 +9764,13 @@
         <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>436</v>
+        <v>384</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>81</v>
@@ -9754,16 +9779,16 @@
         <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>441</v>
+        <v>81</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>442</v>
+        <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>443</v>
+        <v>388</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>81</v>
+        <v>389</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>81</v>
@@ -9771,7 +9796,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>444</v>
+        <v>390</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9794,16 +9819,16 @@
         <v>81</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>445</v>
+        <v>190</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>446</v>
+        <v>391</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>446</v>
+        <v>392</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>447</v>
+        <v>393</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9829,13 +9854,13 @@
         <v>81</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>81</v>
+        <v>269</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>81</v>
+        <v>394</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>81</v>
+        <v>395</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>81</v>
@@ -9853,7 +9878,7 @@
         <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>444</v>
+        <v>390</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
@@ -9868,24 +9893,24 @@
         <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>81</v>
+        <v>397</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>448</v>
+        <v>398</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>81</v>
+        <v>399</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>81</v>
+        <v>400</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>449</v>
+        <v>401</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9896,7 +9921,7 @@
         <v>79</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>81</v>
@@ -9908,15 +9933,17 @@
         <v>81</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>450</v>
+        <v>402</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>451</v>
+        <v>403</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>81</v>
@@ -9965,13 +9992,13 @@
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>449</v>
+        <v>401</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>81</v>
@@ -9980,16 +10007,16 @@
         <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>81</v>
+        <v>406</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>453</v>
+        <v>263</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>454</v>
+        <v>407</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>81</v>
+        <v>399</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>81</v>
@@ -9997,7 +10024,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>455</v>
+        <v>408</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10008,7 +10035,7 @@
         <v>79</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>81</v>
@@ -10017,18 +10044,20 @@
         <v>81</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>169</v>
+        <v>409</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>456</v>
+        <v>410</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>81</v>
@@ -10077,28 +10106,28 @@
         <v>81</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>172</v>
+        <v>408</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>81</v>
+        <v>413</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>173</v>
+        <v>414</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>81</v>
@@ -10109,7 +10138,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>458</v>
+        <v>415</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10129,18 +10158,20 @@
         <v>81</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>134</v>
+        <v>416</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>81</v>
@@ -10177,17 +10208,19 @@
         <v>81</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AB69" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AC69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>178</v>
+        <v>415</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
@@ -10199,7 +10232,7 @@
         <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>81</v>
@@ -10208,7 +10241,7 @@
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>81</v>
+        <v>414</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>81</v>
@@ -10219,11 +10252,9 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
         <v>81</v>
       </c>
@@ -10241,18 +10272,20 @@
         <v>81</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>460</v>
+        <v>419</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>461</v>
+        <v>420</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>81</v>
@@ -10301,7 +10334,7 @@
         <v>81</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>178</v>
+        <v>418</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>79</v>
@@ -10310,19 +10343,19 @@
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>81</v>
+        <v>422</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>81</v>
+        <v>423</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>81</v>
@@ -10333,11 +10366,9 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
         <v>81</v>
       </c>
@@ -10355,19 +10386,21 @@
         <v>81</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>464</v>
+        <v>154</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>466</v>
+        <v>426</v>
       </c>
       <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+      <c r="N71" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>81</v>
       </c>
@@ -10415,28 +10448,28 @@
         <v>81</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>178</v>
+        <v>424</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>81</v>
+        <v>428</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>81</v>
+        <v>429</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>81</v>
@@ -10447,43 +10480,41 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>467</v>
+        <v>430</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>468</v>
+        <v>81</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>469</v>
+        <v>431</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>81</v>
       </c>
@@ -10507,13 +10538,13 @@
         <v>81</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>81</v>
+        <v>269</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>81</v>
+        <v>434</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>81</v>
+        <v>435</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>81</v>
@@ -10531,19 +10562,19 @@
         <v>81</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>471</v>
+        <v>430</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>81</v>
@@ -10552,7 +10583,7 @@
         <v>81</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>131</v>
+        <v>436</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>81</v>
@@ -10563,7 +10594,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>472</v>
+        <v>437</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10574,7 +10605,7 @@
         <v>79</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>81</v>
@@ -10586,16 +10617,16 @@
         <v>81</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>474</v>
+        <v>440</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>475</v>
+        <v>352</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10645,13 +10676,13 @@
         <v>81</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>472</v>
+        <v>437</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>81</v>
@@ -10660,13 +10691,13 @@
         <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>81</v>
+        <v>441</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>476</v>
+        <v>442</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>81</v>
@@ -10677,7 +10708,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>477</v>
+        <v>443</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10688,7 +10719,7 @@
         <v>79</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>81</v>
@@ -10700,15 +10731,17 @@
         <v>81</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>169</v>
+        <v>444</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>170</v>
+        <v>445</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>81</v>
@@ -10757,28 +10790,28 @@
         <v>81</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>172</v>
+        <v>443</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>81</v>
+        <v>448</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>81</v>
+        <v>449</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>173</v>
+        <v>450</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>81</v>
@@ -10789,11 +10822,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>478</v>
+        <v>451</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10812,16 +10845,16 @@
         <v>81</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>133</v>
+        <v>452</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>175</v>
+        <v>453</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>176</v>
+        <v>453</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>149</v>
+        <v>454</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10871,7 +10904,7 @@
         <v>81</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>178</v>
+        <v>451</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>79</v>
@@ -10883,7 +10916,7 @@
         <v>81</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>81</v>
@@ -10892,7 +10925,7 @@
         <v>81</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>173</v>
+        <v>455</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>81</v>
@@ -10903,43 +10936,39 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>468</v>
+        <v>81</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>133</v>
+        <v>457</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>81</v>
       </c>
@@ -10987,28 +11016,28 @@
         <v>81</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>81</v>
+        <v>460</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>131</v>
+        <v>461</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>81</v>
@@ -11019,7 +11048,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11042,17 +11071,15 @@
         <v>81</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>481</v>
+        <v>169</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>484</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>81</v>
@@ -11101,7 +11128,7 @@
         <v>81</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>480</v>
+        <v>172</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>79</v>
@@ -11110,10 +11137,10 @@
         <v>88</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>485</v>
+        <v>81</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>81</v>
@@ -11122,18 +11149,18 @@
         <v>81</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>486</v>
+        <v>173</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>487</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11144,7 +11171,7 @@
         <v>79</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>81</v>
@@ -11156,17 +11183,15 @@
         <v>81</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>489</v>
+        <v>133</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>490</v>
+        <v>134</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>484</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>81</v>
@@ -11203,31 +11228,29 @@
         <v>81</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AB78" s="2"/>
       <c r="AC78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>488</v>
+        <v>178</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>81</v>
@@ -11236,7 +11259,7 @@
         <v>81</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>492</v>
+        <v>81</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>81</v>
@@ -11247,9 +11270,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="B79" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="C79" t="s" s="2">
         <v>81</v>
       </c>
@@ -11258,7 +11283,7 @@
         <v>79</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>81</v>
@@ -11270,17 +11295,15 @@
         <v>81</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>494</v>
+        <v>468</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>484</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>81</v>
@@ -11329,19 +11352,19 @@
         <v>81</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>493</v>
+        <v>178</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>81</v>
@@ -11350,7 +11373,7 @@
         <v>81</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>492</v>
+        <v>81</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>81</v>
@@ -11361,9 +11384,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="B80" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="C80" t="s" s="2">
         <v>81</v>
       </c>
@@ -11384,20 +11409,16 @@
         <v>81</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>219</v>
+        <v>471</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>81</v>
       </c>
@@ -11445,28 +11466,28 @@
         <v>81</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>496</v>
+        <v>178</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>502</v>
+        <v>81</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>81</v>
@@ -11477,39 +11498,43 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>503</v>
+        <v>474</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>81</v>
+        <v>475</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>170</v>
+        <v>476</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>81</v>
       </c>
@@ -11557,19 +11582,19 @@
         <v>81</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>172</v>
+        <v>478</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>81</v>
@@ -11578,7 +11603,7 @@
         <v>81</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>81</v>
@@ -11589,18 +11614,18 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>81</v>
@@ -11612,16 +11637,16 @@
         <v>81</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>133</v>
+        <v>457</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>175</v>
+        <v>480</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>176</v>
+        <v>481</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>149</v>
+        <v>482</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11659,31 +11684,31 @@
         <v>81</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>178</v>
+        <v>479</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>81</v>
@@ -11692,7 +11717,7 @@
         <v>81</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>173</v>
+        <v>483</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>81</v>
@@ -11703,7 +11728,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>505</v>
+        <v>484</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11723,20 +11748,18 @@
         <v>81</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>349</v>
+        <v>169</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>506</v>
+        <v>170</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>508</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>81</v>
@@ -11785,7 +11808,7 @@
         <v>81</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>509</v>
+        <v>172</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>79</v>
@@ -11794,10 +11817,10 @@
         <v>88</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>510</v>
+        <v>81</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>81</v>
@@ -11806,29 +11829,29 @@
         <v>81</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>511</v>
+        <v>173</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>512</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>513</v>
+        <v>485</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>81</v>
@@ -11837,27 +11860,25 @@
         <v>81</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>349</v>
+        <v>133</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>514</v>
+        <v>175</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>515</v>
+        <v>176</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>516</v>
+        <v>149</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P84" t="s" s="2">
-        <v>517</v>
-      </c>
+      <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
         <v>81</v>
       </c>
@@ -11901,19 +11922,19 @@
         <v>81</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>518</v>
+        <v>178</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>510</v>
+        <v>81</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>81</v>
@@ -11922,52 +11943,54 @@
         <v>81</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>519</v>
+        <v>173</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>520</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>521</v>
+        <v>486</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>81</v>
+        <v>475</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>522</v>
+        <v>133</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>523</v>
+        <v>476</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>524</v>
+        <v>477</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O85" t="s" s="2">
         <v>81</v>
       </c>
@@ -12015,39 +12038,39 @@
         <v>81</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>521</v>
+        <v>478</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>526</v>
+        <v>81</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>527</v>
+        <v>131</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>528</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>529</v>
+        <v>487</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12070,16 +12093,16 @@
         <v>81</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>530</v>
+        <v>489</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>531</v>
+        <v>490</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -12129,7 +12152,7 @@
         <v>81</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>529</v>
+        <v>487</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>79</v>
@@ -12141,7 +12164,7 @@
         <v>144</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>81</v>
@@ -12150,18 +12173,18 @@
         <v>81</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>487</v>
+        <v>494</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>532</v>
+        <v>495</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12184,16 +12207,16 @@
         <v>81</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>533</v>
+        <v>497</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>534</v>
+        <v>498</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>535</v>
+        <v>491</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -12243,7 +12266,7 @@
         <v>81</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>532</v>
+        <v>495</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>79</v>
@@ -12261,10 +12284,10 @@
         <v>81</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>536</v>
+        <v>81</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>537</v>
+        <v>499</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>81</v>
@@ -12275,7 +12298,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>538</v>
+        <v>500</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12298,15 +12321,17 @@
         <v>81</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>169</v>
+        <v>496</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>170</v>
+        <v>501</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M88" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>81</v>
@@ -12355,7 +12380,7 @@
         <v>81</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>172</v>
+        <v>500</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>79</v>
@@ -12367,7 +12392,7 @@
         <v>81</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>81</v>
@@ -12376,7 +12401,7 @@
         <v>81</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>173</v>
+        <v>499</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>81</v>
@@ -12387,18 +12412,18 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>539</v>
+        <v>503</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>81</v>
@@ -12410,18 +12435,20 @@
         <v>81</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>175</v>
+        <v>504</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>176</v>
+        <v>505</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="O89" t="s" s="2">
         <v>81</v>
       </c>
@@ -12457,40 +12484,40 @@
         <v>81</v>
       </c>
       <c r="AA89" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="AC89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD89" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>178</v>
+        <v>503</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>81</v>
+        <v>508</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>173</v>
+        <v>509</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>81</v>
@@ -12501,7 +12528,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12521,23 +12548,19 @@
         <v>81</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>541</v>
+        <v>169</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>542</v>
+        <v>170</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>545</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>81</v>
       </c>
@@ -12585,7 +12608,7 @@
         <v>81</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>546</v>
+        <v>172</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>79</v>
@@ -12597,7 +12620,7 @@
         <v>81</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>81</v>
@@ -12606,58 +12629,56 @@
         <v>81</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>547</v>
+        <v>173</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>548</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>549</v>
+        <v>511</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>550</v>
+        <v>175</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P91" t="s" s="2">
-        <v>553</v>
-      </c>
+      <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
         <v>81</v>
       </c>
@@ -12677,43 +12698,43 @@
         <v>81</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>554</v>
+        <v>81</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>555</v>
+        <v>81</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="AC91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>556</v>
+        <v>178</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>81</v>
@@ -12722,18 +12743,18 @@
         <v>81</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>557</v>
+        <v>173</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>558</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>559</v>
+        <v>512</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12756,24 +12777,24 @@
         <v>89</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>169</v>
+        <v>356</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>560</v>
+        <v>513</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="M92" s="2"/>
-      <c r="N92" t="s" s="2">
-        <v>562</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
-        <v>563</v>
+        <v>81</v>
       </c>
       <c r="R92" t="s" s="2">
         <v>81</v>
@@ -12815,7 +12836,7 @@
         <v>81</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>564</v>
+        <v>516</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>79</v>
@@ -12824,7 +12845,7 @@
         <v>88</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>81</v>
+        <v>517</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>100</v>
@@ -12836,18 +12857,18 @@
         <v>81</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>565</v>
+        <v>518</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>566</v>
+        <v>519</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>567</v>
+        <v>520</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12870,24 +12891,26 @@
         <v>89</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>102</v>
+        <v>356</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>568</v>
+        <v>521</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" t="s" s="2">
-        <v>570</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="Q93" t="s" s="2">
-        <v>571</v>
+        <v>81</v>
       </c>
       <c r="R93" t="s" s="2">
         <v>81</v>
@@ -12929,7 +12952,7 @@
         <v>81</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>572</v>
+        <v>525</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>79</v>
@@ -12938,7 +12961,7 @@
         <v>88</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>100</v>
@@ -12950,18 +12973,18 @@
         <v>81</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>574</v>
+        <v>526</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>566</v>
+        <v>527</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>575</v>
+        <v>528</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12981,29 +13004,27 @@
         <v>81</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>108</v>
+        <v>529</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>576</v>
+        <v>530</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>577</v>
+        <v>531</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>579</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
-        <v>580</v>
+        <v>81</v>
       </c>
       <c r="R94" t="s" s="2">
         <v>81</v>
@@ -13045,7 +13066,7 @@
         <v>81</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>581</v>
+        <v>528</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>79</v>
@@ -13063,21 +13084,21 @@
         <v>81</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>81</v>
+        <v>533</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>582</v>
+        <v>534</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>566</v>
+        <v>535</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>583</v>
+        <v>536</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13100,16 +13121,16 @@
         <v>81</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>584</v>
+        <v>488</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>585</v>
+        <v>537</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>586</v>
+        <v>538</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>345</v>
+        <v>491</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13159,7 +13180,7 @@
         <v>81</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>583</v>
+        <v>536</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>79</v>
@@ -13168,10 +13189,10 @@
         <v>88</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>100</v>
+        <v>492</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>81</v>
@@ -13180,18 +13201,18 @@
         <v>81</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>587</v>
+        <v>493</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>382</v>
+        <v>81</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>81</v>
+        <v>494</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>588</v>
+        <v>539</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13214,15 +13235,17 @@
         <v>81</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>450</v>
+        <v>496</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>589</v>
+        <v>540</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="M96" s="2"/>
+        <v>541</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>542</v>
+      </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>81</v>
@@ -13271,7 +13294,7 @@
         <v>81</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>588</v>
+        <v>539</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>79</v>
@@ -13289,10 +13312,10 @@
         <v>81</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>591</v>
+        <v>543</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>592</v>
+        <v>544</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>81</v>
@@ -13303,7 +13326,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>593</v>
+        <v>545</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13415,7 +13438,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>594</v>
+        <v>546</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13485,16 +13508,16 @@
         <v>81</v>
       </c>
       <c r="AA98" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="AC98" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD98" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE98" t="s" s="2">
         <v>178</v>
@@ -13529,42 +13552,42 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>595</v>
+        <v>547</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>468</v>
+        <v>81</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>133</v>
+        <v>548</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>469</v>
+        <v>549</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>470</v>
+        <v>550</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>149</v>
+        <v>551</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>150</v>
+        <v>552</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>81</v>
@@ -13613,19 +13636,19 @@
         <v>81</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>471</v>
+        <v>553</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>81</v>
@@ -13634,18 +13657,18 @@
         <v>81</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>131</v>
+        <v>554</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>81</v>
+        <v>555</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>596</v>
+        <v>556</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13653,7 +13676,7 @@
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F100" t="s" s="2">
         <v>88</v>
@@ -13662,28 +13685,30 @@
         <v>81</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>589</v>
+        <v>557</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>558</v>
+      </c>
+      <c r="M100" s="2"/>
+      <c r="N100" t="s" s="2">
+        <v>559</v>
+      </c>
       <c r="O100" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>560</v>
+      </c>
       <c r="Q100" t="s" s="2">
         <v>81</v>
       </c>
@@ -13703,11 +13728,13 @@
         <v>81</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="X100" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>561</v>
+      </c>
       <c r="Y100" t="s" s="2">
-        <v>599</v>
+        <v>562</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>81</v>
@@ -13725,10 +13752,10 @@
         <v>81</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>596</v>
+        <v>563</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>88</v>
@@ -13743,21 +13770,21 @@
         <v>81</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>591</v>
+        <v>81</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>600</v>
+        <v>564</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>601</v>
+        <v>565</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>602</v>
+        <v>566</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13777,27 +13804,27 @@
         <v>81</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>603</v>
+        <v>567</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="N101" s="2"/>
+        <v>568</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" t="s" s="2">
+        <v>569</v>
+      </c>
       <c r="O101" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" t="s" s="2">
-        <v>81</v>
+        <v>570</v>
       </c>
       <c r="R101" t="s" s="2">
         <v>81</v>
@@ -13815,13 +13842,13 @@
         <v>81</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>606</v>
+        <v>81</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>607</v>
+        <v>81</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>81</v>
@@ -13839,7 +13866,7 @@
         <v>81</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>602</v>
+        <v>571</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>79</v>
@@ -13857,21 +13884,21 @@
         <v>81</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>608</v>
+        <v>81</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>610</v>
+        <v>573</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>611</v>
+        <v>574</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13891,27 +13918,27 @@
         <v>81</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>612</v>
+        <v>102</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>613</v>
+        <v>575</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>576</v>
+      </c>
+      <c r="M102" s="2"/>
+      <c r="N102" t="s" s="2">
+        <v>577</v>
+      </c>
       <c r="O102" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" t="s" s="2">
-        <v>81</v>
+        <v>578</v>
       </c>
       <c r="R102" t="s" s="2">
         <v>81</v>
@@ -13953,7 +13980,7 @@
         <v>81</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>611</v>
+        <v>579</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>79</v>
@@ -13962,41 +13989,41 @@
         <v>88</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>81</v>
+        <v>580</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>615</v>
+        <v>81</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>608</v>
+        <v>81</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>616</v>
+        <v>581</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>81</v>
+        <v>573</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>617</v>
+        <v>582</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>618</v>
+        <v>81</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>81</v>
@@ -14005,27 +14032,29 @@
         <v>81</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>619</v>
+        <v>108</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>620</v>
+        <v>583</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>621</v>
+        <v>584</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="N103" s="2"/>
+        <v>585</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>586</v>
+      </c>
       <c r="O103" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
-        <v>81</v>
+        <v>587</v>
       </c>
       <c r="R103" t="s" s="2">
         <v>81</v>
@@ -14067,13 +14096,13 @@
         <v>81</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>617</v>
+        <v>588</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>81</v>
@@ -14088,18 +14117,18 @@
         <v>81</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>623</v>
+        <v>589</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>81</v>
+        <v>573</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>624</v>
+        <v>590</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14110,7 +14139,7 @@
         <v>79</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>81</v>
@@ -14122,16 +14151,16 @@
         <v>81</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>625</v>
+        <v>591</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>626</v>
+        <v>592</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>627</v>
+        <v>593</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>628</v>
+        <v>352</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -14181,13 +14210,13 @@
         <v>81</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>624</v>
+        <v>590</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>81</v>
@@ -14196,18 +14225,1040 @@
         <v>100</v>
       </c>
       <c r="AJ104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X109" s="2"/>
+      <c r="Y109" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="AK104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL104" t="s" s="2">
+      <c r="N112" s="2"/>
+      <c r="O112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL112" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="AM104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN104" t="s" s="2">
+      <c r="AM112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="N113" s="2"/>
+      <c r="O113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN113" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/jpcore-r4/main/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-medicationrequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/main/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/main/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-medicationrequest.xlsx
@@ -276,7 +276,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Request</t>

--- a/jpcore-r4/main/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-medicationrequest.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
